--- a/2020/Others/Adding New Retailer Format/Retailer's payment format (Changed bkash no) of Rajshahi zone.xlsx
+++ b/2020/Others/Adding New Retailer Format/Retailer's payment format (Changed bkash no) of Rajshahi zone.xlsx
@@ -422,7 +422,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/2020/Others/Adding New Retailer Format/Retailer's payment format (Changed bkash no) of Rajshahi zone.xlsx
+++ b/2020/Others/Adding New Retailer Format/Retailer's payment format (Changed bkash no) of Rajshahi zone.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Dealer Name</t>
   </si>
@@ -37,16 +37,43 @@
     <t>Mugdho Corporation</t>
   </si>
   <si>
-    <t>RET-34209</t>
-  </si>
-  <si>
-    <t>Bondhon Telecom</t>
-  </si>
-  <si>
     <t>Retail Name</t>
   </si>
   <si>
-    <t>Md Mohsin Uddin</t>
+    <t>RET-08787</t>
+  </si>
+  <si>
+    <t>Shabbir Telecom</t>
+  </si>
+  <si>
+    <t>Md Santu Ali</t>
+  </si>
+  <si>
+    <t>RET-07875</t>
+  </si>
+  <si>
+    <t>Khondokar Elecrtronics</t>
+  </si>
+  <si>
+    <t>Md Monirul Islam</t>
+  </si>
+  <si>
+    <t>RET-35442</t>
+  </si>
+  <si>
+    <t>Md Mojnu Pramanic</t>
+  </si>
+  <si>
+    <t>Moom Telecom</t>
+  </si>
+  <si>
+    <t>RET-14872</t>
+  </si>
+  <si>
+    <t>Bismillah Mobile Center</t>
+  </si>
+  <si>
+    <t>Md. Sohel Mandal</t>
   </si>
 </sst>
 </file>
@@ -111,12 +138,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,15 +448,15 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
   </cols>
@@ -443,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -459,11 +485,11 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
@@ -472,32 +498,68 @@
         <v>5</v>
       </c>
       <c r="F2" s="3">
-        <v>1970552028</v>
+        <v>1711015278</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1611438268</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1712469447</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1738182165</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2"/>

--- a/2020/Others/Adding New Retailer Format/Retailer's payment format (Changed bkash no) of Rajshahi zone.xlsx
+++ b/2020/Others/Adding New Retailer Format/Retailer's payment format (Changed bkash no) of Rajshahi zone.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Dealer Name</t>
   </si>
@@ -40,40 +40,43 @@
     <t>Retail Name</t>
   </si>
   <si>
-    <t>RET-08787</t>
-  </si>
-  <si>
-    <t>Shabbir Telecom</t>
-  </si>
-  <si>
-    <t>Md Santu Ali</t>
-  </si>
-  <si>
-    <t>RET-07875</t>
-  </si>
-  <si>
-    <t>Khondokar Elecrtronics</t>
-  </si>
-  <si>
-    <t>Md Monirul Islam</t>
-  </si>
-  <si>
-    <t>RET-35442</t>
-  </si>
-  <si>
-    <t>Md Mojnu Pramanic</t>
-  </si>
-  <si>
-    <t>Moom Telecom</t>
-  </si>
-  <si>
-    <t>RET-14872</t>
-  </si>
-  <si>
-    <t>Bismillah Mobile Center</t>
-  </si>
-  <si>
-    <t>Md. Sohel Mandal</t>
+    <t>Akter Telecom</t>
+  </si>
+  <si>
+    <t>Md. Akter Hosen</t>
+  </si>
+  <si>
+    <t>RET-26498</t>
+  </si>
+  <si>
+    <t>Emon Ali Shahin</t>
+  </si>
+  <si>
+    <t>RET-33094</t>
+  </si>
+  <si>
+    <t>Shekh Electronics &amp; Varieteis Store</t>
+  </si>
+  <si>
+    <t>Bhai Bhai Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md. Khokon Ahmed  </t>
+  </si>
+  <si>
+    <t>RET-07894</t>
+  </si>
+  <si>
+    <t>Mondol Mobile Center</t>
+  </si>
+  <si>
+    <t>RET-33092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md. Azizul Mondol  </t>
+  </si>
+  <si>
+    <t>With Contact Number</t>
   </si>
 </sst>
 </file>
@@ -111,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -134,15 +137,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,23 +460,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,55 +496,55 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="3">
-        <v>1711015278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1797865555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="3">
-        <v>1611438268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1712192700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>
@@ -538,18 +553,18 @@
         <v>5</v>
       </c>
       <c r="F4" s="3">
-        <v>1712469447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1911861374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -558,10 +573,13 @@
         <v>5</v>
       </c>
       <c r="F5" s="3">
-        <v>1738182165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1725821212</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -569,7 +587,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -577,7 +595,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -585,7 +603,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -593,7 +611,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -601,7 +619,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -609,7 +627,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>

--- a/2020/Others/Adding New Retailer Format/Retailer's payment format (Changed bkash no) of Rajshahi zone.xlsx
+++ b/2020/Others/Adding New Retailer Format/Retailer's payment format (Changed bkash no) of Rajshahi zone.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Dealer Name</t>
   </si>
@@ -40,43 +40,13 @@
     <t>Retail Name</t>
   </si>
   <si>
-    <t>Akter Telecom</t>
-  </si>
-  <si>
-    <t>Md. Akter Hosen</t>
-  </si>
-  <si>
-    <t>RET-26498</t>
-  </si>
-  <si>
-    <t>Emon Ali Shahin</t>
-  </si>
-  <si>
-    <t>RET-33094</t>
-  </si>
-  <si>
-    <t>Shekh Electronics &amp; Varieteis Store</t>
-  </si>
-  <si>
-    <t>Bhai Bhai Store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Md. Khokon Ahmed  </t>
-  </si>
-  <si>
-    <t>RET-07894</t>
-  </si>
-  <si>
-    <t>Mondol Mobile Center</t>
-  </si>
-  <si>
-    <t>RET-33092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Md. Azizul Mondol  </t>
-  </si>
-  <si>
-    <t>With Contact Number</t>
+    <t>RET-07880</t>
+  </si>
+  <si>
+    <t>Biswas Telecom</t>
+  </si>
+  <si>
+    <t>Nikhil Chandro Biswas</t>
   </si>
 </sst>
 </file>
@@ -463,7 +433,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -471,7 +441,7 @@
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
   </cols>
@@ -501,83 +471,44 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="3">
-        <v>1797865555</v>
+        <v>1723656356</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1712192700</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1911861374</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1725821212</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2"/>

--- a/2020/Others/Adding New Retailer Format/Retailer's payment format (Changed bkash no) of Rajshahi zone.xlsx
+++ b/2020/Others/Adding New Retailer Format/Retailer's payment format (Changed bkash no) of Rajshahi zone.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Dealer Name</t>
   </si>
@@ -40,13 +40,43 @@
     <t>Retail Name</t>
   </si>
   <si>
-    <t>RET-07880</t>
-  </si>
-  <si>
-    <t>Biswas Telecom</t>
-  </si>
-  <si>
-    <t>Nikhil Chandro Biswas</t>
+    <t>RET-19352</t>
+  </si>
+  <si>
+    <t>Five Brothers</t>
+  </si>
+  <si>
+    <t>RET-35280</t>
+  </si>
+  <si>
+    <t>Sohan Electric &amp; Hardware</t>
+  </si>
+  <si>
+    <t>RET-36165</t>
+  </si>
+  <si>
+    <t>Azim Mobile Center</t>
+  </si>
+  <si>
+    <t>RET-36167</t>
+  </si>
+  <si>
+    <t>Gourango Hardware</t>
+  </si>
+  <si>
+    <t>Bishakhi Enterprise</t>
+  </si>
+  <si>
+    <t>RET-34130</t>
+  </si>
+  <si>
+    <t>CD Sound &amp; Electronics</t>
+  </si>
+  <si>
+    <t>RET-34136</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -84,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -107,27 +137,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
@@ -441,12 +459,12 @@
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:12" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -476,57 +494,105 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="3">
-        <v>1723656356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+        <v>1746161400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1860207883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1764994148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1722309632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1718898690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1730430130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -534,7 +600,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:12">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -542,7 +608,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:12">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -550,7 +616,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:12">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -558,13 +624,16 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:12">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2020/Others/Adding New Retailer Format/Retailer's payment format (Changed bkash no) of Rajshahi zone.xlsx
+++ b/2020/Others/Adding New Retailer Format/Retailer's payment format (Changed bkash no) of Rajshahi zone.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Dealer Name</t>
   </si>
@@ -40,43 +40,13 @@
     <t>Retail Name</t>
   </si>
   <si>
-    <t>RET-19352</t>
-  </si>
-  <si>
-    <t>Five Brothers</t>
-  </si>
-  <si>
-    <t>RET-35280</t>
-  </si>
-  <si>
-    <t>Sohan Electric &amp; Hardware</t>
-  </si>
-  <si>
-    <t>RET-36165</t>
-  </si>
-  <si>
-    <t>Azim Mobile Center</t>
-  </si>
-  <si>
-    <t>RET-36167</t>
-  </si>
-  <si>
-    <t>Gourango Hardware</t>
-  </si>
-  <si>
-    <t>Bishakhi Enterprise</t>
-  </si>
-  <si>
-    <t>RET-34130</t>
-  </si>
-  <si>
-    <t>CD Sound &amp; Electronics</t>
-  </si>
-  <si>
-    <t>RET-34136</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>RET-26511</t>
+  </si>
+  <si>
+    <t>Bismillah Telecom</t>
   </si>
 </sst>
 </file>
@@ -141,11 +111,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +427,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -485,112 +461,61 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3">
-        <v>1746161400</v>
+      <c r="F2" s="5">
+        <v>1316416301</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1860207883</v>
-      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1764994148</v>
-      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1722309632</v>
-      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1718898690</v>
-      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1730430130</v>
-      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2"/>
@@ -632,7 +557,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="L12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/2020/Others/Adding New Retailer Format/Retailer's payment format (Changed bkash no) of Rajshahi zone.xlsx
+++ b/2020/Others/Adding New Retailer Format/Retailer's payment format (Changed bkash no) of Rajshahi zone.xlsx
@@ -43,10 +43,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>RET-26511</t>
-  </si>
-  <si>
-    <t>Bismillah Telecom</t>
+    <t>RET-07868</t>
+  </si>
+  <si>
+    <t>S.N Mobile Center</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -475,7 +475,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="5">
-        <v>1316416301</v>
+        <v>1779767130</v>
       </c>
     </row>
     <row r="3" spans="1:12">
